--- a/database/target.xlsx
+++ b/database/target.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="9">
   <si>
     <t>TONAME</t>
   </si>
@@ -852,9 +852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:E97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -941,6 +943,996 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/target.xlsx
+++ b/database/target.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="9">
   <si>
     <t>TONAME</t>
   </si>
@@ -852,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:E97"/>
+    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
+      <selection activeCell="A578" sqref="A1:E673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,7 +1922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>7</v>
       </c>
@@ -1930,6 +1930,6342 @@
         <v>8</v>
       </c>
       <c r="E97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>3</v>
+      </c>
+      <c r="E191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>3</v>
+      </c>
+      <c r="E197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>3</v>
+      </c>
+      <c r="E200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>3</v>
+      </c>
+      <c r="E203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>3</v>
+      </c>
+      <c r="E212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>3</v>
+      </c>
+      <c r="E218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>3</v>
+      </c>
+      <c r="E221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" t="s">
+        <v>3</v>
+      </c>
+      <c r="E224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" t="s">
+        <v>6</v>
+      </c>
+      <c r="E225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>3</v>
+      </c>
+      <c r="E227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>3</v>
+      </c>
+      <c r="E230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" t="s">
+        <v>6</v>
+      </c>
+      <c r="E231" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>3</v>
+      </c>
+      <c r="E233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" t="s">
+        <v>8</v>
+      </c>
+      <c r="E235" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>3</v>
+      </c>
+      <c r="E236" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" t="s">
+        <v>6</v>
+      </c>
+      <c r="E237" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>3</v>
+      </c>
+      <c r="E239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" t="s">
+        <v>8</v>
+      </c>
+      <c r="E241" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>3</v>
+      </c>
+      <c r="E242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>3</v>
+      </c>
+      <c r="E245" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" t="s">
+        <v>8</v>
+      </c>
+      <c r="E247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>3</v>
+      </c>
+      <c r="E248" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="D249" t="s">
+        <v>6</v>
+      </c>
+      <c r="E249" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>3</v>
+      </c>
+      <c r="E251" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="D252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>3</v>
+      </c>
+      <c r="E254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="D255" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" t="s">
+        <v>8</v>
+      </c>
+      <c r="E256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>3</v>
+      </c>
+      <c r="E257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="D258" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>7</v>
+      </c>
+      <c r="D259" t="s">
+        <v>8</v>
+      </c>
+      <c r="E259" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>3</v>
+      </c>
+      <c r="E260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="D261" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>3</v>
+      </c>
+      <c r="E263" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="D264" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>7</v>
+      </c>
+      <c r="D265" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>3</v>
+      </c>
+      <c r="E266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="D267" t="s">
+        <v>6</v>
+      </c>
+      <c r="E267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>3</v>
+      </c>
+      <c r="E269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270" t="s">
+        <v>6</v>
+      </c>
+      <c r="E270" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" t="s">
+        <v>8</v>
+      </c>
+      <c r="E271" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>3</v>
+      </c>
+      <c r="E272" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="D273" t="s">
+        <v>6</v>
+      </c>
+      <c r="E273" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>3</v>
+      </c>
+      <c r="E275" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="D276" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>3</v>
+      </c>
+      <c r="E278" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="D279" t="s">
+        <v>6</v>
+      </c>
+      <c r="E279" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>3</v>
+      </c>
+      <c r="E281" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="D282" t="s">
+        <v>6</v>
+      </c>
+      <c r="E282" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>7</v>
+      </c>
+      <c r="D283" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>2</v>
+      </c>
+      <c r="D284" t="s">
+        <v>3</v>
+      </c>
+      <c r="E284" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="D285" t="s">
+        <v>6</v>
+      </c>
+      <c r="E285" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>7</v>
+      </c>
+      <c r="D286" t="s">
+        <v>8</v>
+      </c>
+      <c r="E286" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>2</v>
+      </c>
+      <c r="D287" t="s">
+        <v>3</v>
+      </c>
+      <c r="E287" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>2</v>
+      </c>
+      <c r="D290" t="s">
+        <v>3</v>
+      </c>
+      <c r="E290" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="D291" t="s">
+        <v>6</v>
+      </c>
+      <c r="E291" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" t="s">
+        <v>8</v>
+      </c>
+      <c r="E292" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>2</v>
+      </c>
+      <c r="D293" t="s">
+        <v>3</v>
+      </c>
+      <c r="E293" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="D294" t="s">
+        <v>6</v>
+      </c>
+      <c r="E294" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" t="s">
+        <v>8</v>
+      </c>
+      <c r="E295" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>2</v>
+      </c>
+      <c r="D296" t="s">
+        <v>3</v>
+      </c>
+      <c r="E296" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="D297" t="s">
+        <v>6</v>
+      </c>
+      <c r="E297" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" t="s">
+        <v>8</v>
+      </c>
+      <c r="E298" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>2</v>
+      </c>
+      <c r="D299" t="s">
+        <v>3</v>
+      </c>
+      <c r="E299" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="D300" t="s">
+        <v>6</v>
+      </c>
+      <c r="E300" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C301" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>2</v>
+      </c>
+      <c r="D302" t="s">
+        <v>3</v>
+      </c>
+      <c r="E302" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="D303" t="s">
+        <v>6</v>
+      </c>
+      <c r="E303" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C304" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" t="s">
+        <v>8</v>
+      </c>
+      <c r="E304" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>2</v>
+      </c>
+      <c r="D305" t="s">
+        <v>3</v>
+      </c>
+      <c r="E305" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306" t="s">
+        <v>6</v>
+      </c>
+      <c r="E306" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C307" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" t="s">
+        <v>8</v>
+      </c>
+      <c r="E307" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>2</v>
+      </c>
+      <c r="D308" t="s">
+        <v>3</v>
+      </c>
+      <c r="E308" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="D309" t="s">
+        <v>6</v>
+      </c>
+      <c r="E309" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" t="s">
+        <v>8</v>
+      </c>
+      <c r="E310" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>2</v>
+      </c>
+      <c r="D311" t="s">
+        <v>3</v>
+      </c>
+      <c r="E311" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="D312" t="s">
+        <v>6</v>
+      </c>
+      <c r="E312" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C313" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>3</v>
+      </c>
+      <c r="E314" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="D315" t="s">
+        <v>6</v>
+      </c>
+      <c r="E315" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C316" t="s">
+        <v>7</v>
+      </c>
+      <c r="D316" t="s">
+        <v>8</v>
+      </c>
+      <c r="E316" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>2</v>
+      </c>
+      <c r="D317" t="s">
+        <v>3</v>
+      </c>
+      <c r="E317" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="D318" t="s">
+        <v>6</v>
+      </c>
+      <c r="E318" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" t="s">
+        <v>8</v>
+      </c>
+      <c r="E319" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>2</v>
+      </c>
+      <c r="D320" t="s">
+        <v>3</v>
+      </c>
+      <c r="E320" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="D321" t="s">
+        <v>6</v>
+      </c>
+      <c r="E321" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C322" t="s">
+        <v>7</v>
+      </c>
+      <c r="D322" t="s">
+        <v>8</v>
+      </c>
+      <c r="E322" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>2</v>
+      </c>
+      <c r="D323" t="s">
+        <v>3</v>
+      </c>
+      <c r="E323" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="D324" t="s">
+        <v>6</v>
+      </c>
+      <c r="E324" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C325" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" t="s">
+        <v>8</v>
+      </c>
+      <c r="E325" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>2</v>
+      </c>
+      <c r="D326" t="s">
+        <v>3</v>
+      </c>
+      <c r="E326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="D327" t="s">
+        <v>6</v>
+      </c>
+      <c r="E327" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C328" t="s">
+        <v>7</v>
+      </c>
+      <c r="D328" t="s">
+        <v>8</v>
+      </c>
+      <c r="E328" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>2</v>
+      </c>
+      <c r="D329" t="s">
+        <v>3</v>
+      </c>
+      <c r="E329" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="D330" t="s">
+        <v>6</v>
+      </c>
+      <c r="E330" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C331" t="s">
+        <v>7</v>
+      </c>
+      <c r="D331" t="s">
+        <v>8</v>
+      </c>
+      <c r="E331" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>2</v>
+      </c>
+      <c r="D332" t="s">
+        <v>3</v>
+      </c>
+      <c r="E332" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+      <c r="D333" t="s">
+        <v>6</v>
+      </c>
+      <c r="E333" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C334" t="s">
+        <v>7</v>
+      </c>
+      <c r="D334" t="s">
+        <v>8</v>
+      </c>
+      <c r="E334" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>2</v>
+      </c>
+      <c r="D335" t="s">
+        <v>3</v>
+      </c>
+      <c r="E335" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="D336" t="s">
+        <v>6</v>
+      </c>
+      <c r="E336" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C337" t="s">
+        <v>7</v>
+      </c>
+      <c r="D337" t="s">
+        <v>8</v>
+      </c>
+      <c r="E337" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>2</v>
+      </c>
+      <c r="D338" t="s">
+        <v>3</v>
+      </c>
+      <c r="E338" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="D339" t="s">
+        <v>6</v>
+      </c>
+      <c r="E339" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C340" t="s">
+        <v>7</v>
+      </c>
+      <c r="D340" t="s">
+        <v>8</v>
+      </c>
+      <c r="E340" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>2</v>
+      </c>
+      <c r="D341" t="s">
+        <v>3</v>
+      </c>
+      <c r="E341" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342" t="s">
+        <v>6</v>
+      </c>
+      <c r="E342" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C343" t="s">
+        <v>7</v>
+      </c>
+      <c r="D343" t="s">
+        <v>8</v>
+      </c>
+      <c r="E343" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>2</v>
+      </c>
+      <c r="D344" t="s">
+        <v>3</v>
+      </c>
+      <c r="E344" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="D345" t="s">
+        <v>6</v>
+      </c>
+      <c r="E345" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C346" t="s">
+        <v>7</v>
+      </c>
+      <c r="D346" t="s">
+        <v>8</v>
+      </c>
+      <c r="E346" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>2</v>
+      </c>
+      <c r="D347" t="s">
+        <v>3</v>
+      </c>
+      <c r="E347" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="D348" t="s">
+        <v>6</v>
+      </c>
+      <c r="E348" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C349" t="s">
+        <v>7</v>
+      </c>
+      <c r="D349" t="s">
+        <v>8</v>
+      </c>
+      <c r="E349" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>2</v>
+      </c>
+      <c r="D350" t="s">
+        <v>3</v>
+      </c>
+      <c r="E350" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="D351" t="s">
+        <v>6</v>
+      </c>
+      <c r="E351" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C352" t="s">
+        <v>7</v>
+      </c>
+      <c r="D352" t="s">
+        <v>8</v>
+      </c>
+      <c r="E352" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>2</v>
+      </c>
+      <c r="D353" t="s">
+        <v>3</v>
+      </c>
+      <c r="E353" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="D354" t="s">
+        <v>6</v>
+      </c>
+      <c r="E354" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C355" t="s">
+        <v>7</v>
+      </c>
+      <c r="D355" t="s">
+        <v>8</v>
+      </c>
+      <c r="E355" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>2</v>
+      </c>
+      <c r="D356" t="s">
+        <v>3</v>
+      </c>
+      <c r="E356" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="D357" t="s">
+        <v>6</v>
+      </c>
+      <c r="E357" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C358" t="s">
+        <v>7</v>
+      </c>
+      <c r="D358" t="s">
+        <v>8</v>
+      </c>
+      <c r="E358" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>2</v>
+      </c>
+      <c r="D359" t="s">
+        <v>3</v>
+      </c>
+      <c r="E359" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="D360" t="s">
+        <v>6</v>
+      </c>
+      <c r="E360" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C361" t="s">
+        <v>7</v>
+      </c>
+      <c r="D361" t="s">
+        <v>8</v>
+      </c>
+      <c r="E361" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>2</v>
+      </c>
+      <c r="D362" t="s">
+        <v>3</v>
+      </c>
+      <c r="E362" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="D363" t="s">
+        <v>6</v>
+      </c>
+      <c r="E363" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C364" t="s">
+        <v>7</v>
+      </c>
+      <c r="D364" t="s">
+        <v>8</v>
+      </c>
+      <c r="E364" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>3</v>
+      </c>
+      <c r="E365" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="D366" t="s">
+        <v>6</v>
+      </c>
+      <c r="E366" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C367" t="s">
+        <v>7</v>
+      </c>
+      <c r="D367" t="s">
+        <v>8</v>
+      </c>
+      <c r="E367" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>2</v>
+      </c>
+      <c r="D368" t="s">
+        <v>3</v>
+      </c>
+      <c r="E368" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="D369" t="s">
+        <v>6</v>
+      </c>
+      <c r="E369" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C370" t="s">
+        <v>7</v>
+      </c>
+      <c r="D370" t="s">
+        <v>8</v>
+      </c>
+      <c r="E370" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>2</v>
+      </c>
+      <c r="D371" t="s">
+        <v>3</v>
+      </c>
+      <c r="E371" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="D372" t="s">
+        <v>6</v>
+      </c>
+      <c r="E372" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C373" t="s">
+        <v>7</v>
+      </c>
+      <c r="D373" t="s">
+        <v>8</v>
+      </c>
+      <c r="E373" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>2</v>
+      </c>
+      <c r="D374" t="s">
+        <v>3</v>
+      </c>
+      <c r="E374" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+      <c r="D375" t="s">
+        <v>6</v>
+      </c>
+      <c r="E375" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C376" t="s">
+        <v>7</v>
+      </c>
+      <c r="D376" t="s">
+        <v>8</v>
+      </c>
+      <c r="E376" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>2</v>
+      </c>
+      <c r="D377" t="s">
+        <v>3</v>
+      </c>
+      <c r="E377" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="D378" t="s">
+        <v>6</v>
+      </c>
+      <c r="E378" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C379" t="s">
+        <v>7</v>
+      </c>
+      <c r="D379" t="s">
+        <v>8</v>
+      </c>
+      <c r="E379" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>2</v>
+      </c>
+      <c r="D380" t="s">
+        <v>3</v>
+      </c>
+      <c r="E380" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+      <c r="D381" t="s">
+        <v>6</v>
+      </c>
+      <c r="E381" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C382" t="s">
+        <v>7</v>
+      </c>
+      <c r="D382" t="s">
+        <v>8</v>
+      </c>
+      <c r="E382" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>2</v>
+      </c>
+      <c r="D383" t="s">
+        <v>3</v>
+      </c>
+      <c r="E383" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+      <c r="D384" t="s">
+        <v>6</v>
+      </c>
+      <c r="E384" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C385" t="s">
+        <v>7</v>
+      </c>
+      <c r="D385" t="s">
+        <v>8</v>
+      </c>
+      <c r="E385" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>2</v>
+      </c>
+      <c r="D386" t="s">
+        <v>3</v>
+      </c>
+      <c r="E386" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="D387" t="s">
+        <v>6</v>
+      </c>
+      <c r="E387" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C388" t="s">
+        <v>7</v>
+      </c>
+      <c r="D388" t="s">
+        <v>8</v>
+      </c>
+      <c r="E388" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>2</v>
+      </c>
+      <c r="D389" t="s">
+        <v>3</v>
+      </c>
+      <c r="E389" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="D390" t="s">
+        <v>6</v>
+      </c>
+      <c r="E390" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C391" t="s">
+        <v>7</v>
+      </c>
+      <c r="D391" t="s">
+        <v>8</v>
+      </c>
+      <c r="E391" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>2</v>
+      </c>
+      <c r="D392" t="s">
+        <v>3</v>
+      </c>
+      <c r="E392" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="D393" t="s">
+        <v>6</v>
+      </c>
+      <c r="E393" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C394" t="s">
+        <v>7</v>
+      </c>
+      <c r="D394" t="s">
+        <v>8</v>
+      </c>
+      <c r="E394" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>2</v>
+      </c>
+      <c r="D395" t="s">
+        <v>3</v>
+      </c>
+      <c r="E395" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="D396" t="s">
+        <v>6</v>
+      </c>
+      <c r="E396" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C397" t="s">
+        <v>7</v>
+      </c>
+      <c r="D397" t="s">
+        <v>8</v>
+      </c>
+      <c r="E397" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>2</v>
+      </c>
+      <c r="D398" t="s">
+        <v>3</v>
+      </c>
+      <c r="E398" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="D399" t="s">
+        <v>6</v>
+      </c>
+      <c r="E399" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C400" t="s">
+        <v>7</v>
+      </c>
+      <c r="D400" t="s">
+        <v>8</v>
+      </c>
+      <c r="E400" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>2</v>
+      </c>
+      <c r="D401" t="s">
+        <v>3</v>
+      </c>
+      <c r="E401" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="D402" t="s">
+        <v>6</v>
+      </c>
+      <c r="E402" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C403" t="s">
+        <v>7</v>
+      </c>
+      <c r="D403" t="s">
+        <v>8</v>
+      </c>
+      <c r="E403" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>2</v>
+      </c>
+      <c r="D404" t="s">
+        <v>3</v>
+      </c>
+      <c r="E404" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="D405" t="s">
+        <v>6</v>
+      </c>
+      <c r="E405" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C406" t="s">
+        <v>7</v>
+      </c>
+      <c r="D406" t="s">
+        <v>8</v>
+      </c>
+      <c r="E406" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>2</v>
+      </c>
+      <c r="D407" t="s">
+        <v>3</v>
+      </c>
+      <c r="E407" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="D408" t="s">
+        <v>6</v>
+      </c>
+      <c r="E408" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C409" t="s">
+        <v>7</v>
+      </c>
+      <c r="D409" t="s">
+        <v>8</v>
+      </c>
+      <c r="E409" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>2</v>
+      </c>
+      <c r="D410" t="s">
+        <v>3</v>
+      </c>
+      <c r="E410" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+      <c r="D411" t="s">
+        <v>6</v>
+      </c>
+      <c r="E411" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C412" t="s">
+        <v>7</v>
+      </c>
+      <c r="D412" t="s">
+        <v>8</v>
+      </c>
+      <c r="E412" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>2</v>
+      </c>
+      <c r="D413" t="s">
+        <v>3</v>
+      </c>
+      <c r="E413" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="D414" t="s">
+        <v>6</v>
+      </c>
+      <c r="E414" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C415" t="s">
+        <v>7</v>
+      </c>
+      <c r="D415" t="s">
+        <v>8</v>
+      </c>
+      <c r="E415" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>2</v>
+      </c>
+      <c r="D416" t="s">
+        <v>3</v>
+      </c>
+      <c r="E416" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="D417" t="s">
+        <v>6</v>
+      </c>
+      <c r="E417" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C418" t="s">
+        <v>7</v>
+      </c>
+      <c r="D418" t="s">
+        <v>8</v>
+      </c>
+      <c r="E418" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>2</v>
+      </c>
+      <c r="D419" t="s">
+        <v>3</v>
+      </c>
+      <c r="E419" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+      <c r="D420" t="s">
+        <v>6</v>
+      </c>
+      <c r="E420" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C421" t="s">
+        <v>7</v>
+      </c>
+      <c r="D421" t="s">
+        <v>8</v>
+      </c>
+      <c r="E421" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>2</v>
+      </c>
+      <c r="D422" t="s">
+        <v>3</v>
+      </c>
+      <c r="E422" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+      <c r="D423" t="s">
+        <v>6</v>
+      </c>
+      <c r="E423" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C424" t="s">
+        <v>7</v>
+      </c>
+      <c r="D424" t="s">
+        <v>8</v>
+      </c>
+      <c r="E424" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>2</v>
+      </c>
+      <c r="D425" t="s">
+        <v>3</v>
+      </c>
+      <c r="E425" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>5</v>
+      </c>
+      <c r="D426" t="s">
+        <v>6</v>
+      </c>
+      <c r="E426" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C427" t="s">
+        <v>7</v>
+      </c>
+      <c r="D427" t="s">
+        <v>8</v>
+      </c>
+      <c r="E427" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>2</v>
+      </c>
+      <c r="D428" t="s">
+        <v>3</v>
+      </c>
+      <c r="E428" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>5</v>
+      </c>
+      <c r="D429" t="s">
+        <v>6</v>
+      </c>
+      <c r="E429" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C430" t="s">
+        <v>7</v>
+      </c>
+      <c r="D430" t="s">
+        <v>8</v>
+      </c>
+      <c r="E430" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>3</v>
+      </c>
+      <c r="E431" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>5</v>
+      </c>
+      <c r="D432" t="s">
+        <v>6</v>
+      </c>
+      <c r="E432" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C433" t="s">
+        <v>7</v>
+      </c>
+      <c r="D433" t="s">
+        <v>8</v>
+      </c>
+      <c r="E433" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>2</v>
+      </c>
+      <c r="D434" t="s">
+        <v>3</v>
+      </c>
+      <c r="E434" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>5</v>
+      </c>
+      <c r="D435" t="s">
+        <v>6</v>
+      </c>
+      <c r="E435" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C436" t="s">
+        <v>7</v>
+      </c>
+      <c r="D436" t="s">
+        <v>8</v>
+      </c>
+      <c r="E436" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>2</v>
+      </c>
+      <c r="D437" t="s">
+        <v>3</v>
+      </c>
+      <c r="E437" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+      <c r="D438" t="s">
+        <v>6</v>
+      </c>
+      <c r="E438" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C439" t="s">
+        <v>7</v>
+      </c>
+      <c r="D439" t="s">
+        <v>8</v>
+      </c>
+      <c r="E439" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>2</v>
+      </c>
+      <c r="D440" t="s">
+        <v>3</v>
+      </c>
+      <c r="E440" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
+        <v>5</v>
+      </c>
+      <c r="D441" t="s">
+        <v>6</v>
+      </c>
+      <c r="E441" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C442" t="s">
+        <v>7</v>
+      </c>
+      <c r="D442" t="s">
+        <v>8</v>
+      </c>
+      <c r="E442" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>2</v>
+      </c>
+      <c r="D443" t="s">
+        <v>3</v>
+      </c>
+      <c r="E443" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+      <c r="D444" t="s">
+        <v>6</v>
+      </c>
+      <c r="E444" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C445" t="s">
+        <v>7</v>
+      </c>
+      <c r="D445" t="s">
+        <v>8</v>
+      </c>
+      <c r="E445" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>2</v>
+      </c>
+      <c r="D446" t="s">
+        <v>3</v>
+      </c>
+      <c r="E446" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B447" t="s">
+        <v>5</v>
+      </c>
+      <c r="D447" t="s">
+        <v>6</v>
+      </c>
+      <c r="E447" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C448" t="s">
+        <v>7</v>
+      </c>
+      <c r="D448" t="s">
+        <v>8</v>
+      </c>
+      <c r="E448" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>2</v>
+      </c>
+      <c r="D449" t="s">
+        <v>3</v>
+      </c>
+      <c r="E449" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B450" t="s">
+        <v>5</v>
+      </c>
+      <c r="D450" t="s">
+        <v>6</v>
+      </c>
+      <c r="E450" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C451" t="s">
+        <v>7</v>
+      </c>
+      <c r="D451" t="s">
+        <v>8</v>
+      </c>
+      <c r="E451" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>2</v>
+      </c>
+      <c r="D452" t="s">
+        <v>3</v>
+      </c>
+      <c r="E452" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B453" t="s">
+        <v>5</v>
+      </c>
+      <c r="D453" t="s">
+        <v>6</v>
+      </c>
+      <c r="E453" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C454" t="s">
+        <v>7</v>
+      </c>
+      <c r="D454" t="s">
+        <v>8</v>
+      </c>
+      <c r="E454" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>2</v>
+      </c>
+      <c r="D455" t="s">
+        <v>3</v>
+      </c>
+      <c r="E455" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B456" t="s">
+        <v>5</v>
+      </c>
+      <c r="D456" t="s">
+        <v>6</v>
+      </c>
+      <c r="E456" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C457" t="s">
+        <v>7</v>
+      </c>
+      <c r="D457" t="s">
+        <v>8</v>
+      </c>
+      <c r="E457" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>2</v>
+      </c>
+      <c r="D458" t="s">
+        <v>3</v>
+      </c>
+      <c r="E458" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B459" t="s">
+        <v>5</v>
+      </c>
+      <c r="D459" t="s">
+        <v>6</v>
+      </c>
+      <c r="E459" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C460" t="s">
+        <v>7</v>
+      </c>
+      <c r="D460" t="s">
+        <v>8</v>
+      </c>
+      <c r="E460" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>2</v>
+      </c>
+      <c r="D461" t="s">
+        <v>3</v>
+      </c>
+      <c r="E461" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B462" t="s">
+        <v>5</v>
+      </c>
+      <c r="D462" t="s">
+        <v>6</v>
+      </c>
+      <c r="E462" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C463" t="s">
+        <v>7</v>
+      </c>
+      <c r="D463" t="s">
+        <v>8</v>
+      </c>
+      <c r="E463" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>2</v>
+      </c>
+      <c r="D464" t="s">
+        <v>3</v>
+      </c>
+      <c r="E464" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B465" t="s">
+        <v>5</v>
+      </c>
+      <c r="D465" t="s">
+        <v>6</v>
+      </c>
+      <c r="E465" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C466" t="s">
+        <v>7</v>
+      </c>
+      <c r="D466" t="s">
+        <v>8</v>
+      </c>
+      <c r="E466" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>2</v>
+      </c>
+      <c r="D467" t="s">
+        <v>3</v>
+      </c>
+      <c r="E467" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B468" t="s">
+        <v>5</v>
+      </c>
+      <c r="D468" t="s">
+        <v>6</v>
+      </c>
+      <c r="E468" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C469" t="s">
+        <v>7</v>
+      </c>
+      <c r="D469" t="s">
+        <v>8</v>
+      </c>
+      <c r="E469" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>2</v>
+      </c>
+      <c r="D470" t="s">
+        <v>3</v>
+      </c>
+      <c r="E470" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B471" t="s">
+        <v>5</v>
+      </c>
+      <c r="D471" t="s">
+        <v>6</v>
+      </c>
+      <c r="E471" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C472" t="s">
+        <v>7</v>
+      </c>
+      <c r="D472" t="s">
+        <v>8</v>
+      </c>
+      <c r="E472" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>2</v>
+      </c>
+      <c r="D473" t="s">
+        <v>3</v>
+      </c>
+      <c r="E473" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B474" t="s">
+        <v>5</v>
+      </c>
+      <c r="D474" t="s">
+        <v>6</v>
+      </c>
+      <c r="E474" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C475" t="s">
+        <v>7</v>
+      </c>
+      <c r="D475" t="s">
+        <v>8</v>
+      </c>
+      <c r="E475" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>2</v>
+      </c>
+      <c r="D476" t="s">
+        <v>3</v>
+      </c>
+      <c r="E476" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B477" t="s">
+        <v>5</v>
+      </c>
+      <c r="D477" t="s">
+        <v>6</v>
+      </c>
+      <c r="E477" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C478" t="s">
+        <v>7</v>
+      </c>
+      <c r="D478" t="s">
+        <v>8</v>
+      </c>
+      <c r="E478" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>2</v>
+      </c>
+      <c r="D479" t="s">
+        <v>3</v>
+      </c>
+      <c r="E479" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B480" t="s">
+        <v>5</v>
+      </c>
+      <c r="D480" t="s">
+        <v>6</v>
+      </c>
+      <c r="E480" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C481" t="s">
+        <v>7</v>
+      </c>
+      <c r="D481" t="s">
+        <v>8</v>
+      </c>
+      <c r="E481" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>2</v>
+      </c>
+      <c r="D482" t="s">
+        <v>3</v>
+      </c>
+      <c r="E482" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B483" t="s">
+        <v>5</v>
+      </c>
+      <c r="D483" t="s">
+        <v>6</v>
+      </c>
+      <c r="E483" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C484" t="s">
+        <v>7</v>
+      </c>
+      <c r="D484" t="s">
+        <v>8</v>
+      </c>
+      <c r="E484" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>2</v>
+      </c>
+      <c r="D485" t="s">
+        <v>3</v>
+      </c>
+      <c r="E485" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B486" t="s">
+        <v>5</v>
+      </c>
+      <c r="D486" t="s">
+        <v>6</v>
+      </c>
+      <c r="E486" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C487" t="s">
+        <v>7</v>
+      </c>
+      <c r="D487" t="s">
+        <v>8</v>
+      </c>
+      <c r="E487" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>2</v>
+      </c>
+      <c r="D488" t="s">
+        <v>3</v>
+      </c>
+      <c r="E488" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B489" t="s">
+        <v>5</v>
+      </c>
+      <c r="D489" t="s">
+        <v>6</v>
+      </c>
+      <c r="E489" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C490" t="s">
+        <v>7</v>
+      </c>
+      <c r="D490" t="s">
+        <v>8</v>
+      </c>
+      <c r="E490" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>2</v>
+      </c>
+      <c r="D491" t="s">
+        <v>3</v>
+      </c>
+      <c r="E491" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B492" t="s">
+        <v>5</v>
+      </c>
+      <c r="D492" t="s">
+        <v>6</v>
+      </c>
+      <c r="E492" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C493" t="s">
+        <v>7</v>
+      </c>
+      <c r="D493" t="s">
+        <v>8</v>
+      </c>
+      <c r="E493" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>2</v>
+      </c>
+      <c r="D494" t="s">
+        <v>3</v>
+      </c>
+      <c r="E494" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B495" t="s">
+        <v>5</v>
+      </c>
+      <c r="D495" t="s">
+        <v>6</v>
+      </c>
+      <c r="E495" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C496" t="s">
+        <v>7</v>
+      </c>
+      <c r="D496" t="s">
+        <v>8</v>
+      </c>
+      <c r="E496" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>2</v>
+      </c>
+      <c r="D497" t="s">
+        <v>3</v>
+      </c>
+      <c r="E497" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B498" t="s">
+        <v>5</v>
+      </c>
+      <c r="D498" t="s">
+        <v>6</v>
+      </c>
+      <c r="E498" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C499" t="s">
+        <v>7</v>
+      </c>
+      <c r="D499" t="s">
+        <v>8</v>
+      </c>
+      <c r="E499" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>2</v>
+      </c>
+      <c r="D500" t="s">
+        <v>3</v>
+      </c>
+      <c r="E500" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B501" t="s">
+        <v>5</v>
+      </c>
+      <c r="D501" t="s">
+        <v>6</v>
+      </c>
+      <c r="E501" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C502" t="s">
+        <v>7</v>
+      </c>
+      <c r="D502" t="s">
+        <v>8</v>
+      </c>
+      <c r="E502" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>2</v>
+      </c>
+      <c r="D503" t="s">
+        <v>3</v>
+      </c>
+      <c r="E503" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B504" t="s">
+        <v>5</v>
+      </c>
+      <c r="D504" t="s">
+        <v>6</v>
+      </c>
+      <c r="E504" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C505" t="s">
+        <v>7</v>
+      </c>
+      <c r="D505" t="s">
+        <v>8</v>
+      </c>
+      <c r="E505" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>2</v>
+      </c>
+      <c r="D506" t="s">
+        <v>3</v>
+      </c>
+      <c r="E506" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B507" t="s">
+        <v>5</v>
+      </c>
+      <c r="D507" t="s">
+        <v>6</v>
+      </c>
+      <c r="E507" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C508" t="s">
+        <v>7</v>
+      </c>
+      <c r="D508" t="s">
+        <v>8</v>
+      </c>
+      <c r="E508" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>2</v>
+      </c>
+      <c r="D509" t="s">
+        <v>3</v>
+      </c>
+      <c r="E509" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B510" t="s">
+        <v>5</v>
+      </c>
+      <c r="D510" t="s">
+        <v>6</v>
+      </c>
+      <c r="E510" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C511" t="s">
+        <v>7</v>
+      </c>
+      <c r="D511" t="s">
+        <v>8</v>
+      </c>
+      <c r="E511" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>2</v>
+      </c>
+      <c r="D512" t="s">
+        <v>3</v>
+      </c>
+      <c r="E512" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B513" t="s">
+        <v>5</v>
+      </c>
+      <c r="D513" t="s">
+        <v>6</v>
+      </c>
+      <c r="E513" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C514" t="s">
+        <v>7</v>
+      </c>
+      <c r="D514" t="s">
+        <v>8</v>
+      </c>
+      <c r="E514" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>2</v>
+      </c>
+      <c r="D515" t="s">
+        <v>3</v>
+      </c>
+      <c r="E515" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B516" t="s">
+        <v>5</v>
+      </c>
+      <c r="D516" t="s">
+        <v>6</v>
+      </c>
+      <c r="E516" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C517" t="s">
+        <v>7</v>
+      </c>
+      <c r="D517" t="s">
+        <v>8</v>
+      </c>
+      <c r="E517" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>2</v>
+      </c>
+      <c r="D518" t="s">
+        <v>3</v>
+      </c>
+      <c r="E518" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B519" t="s">
+        <v>5</v>
+      </c>
+      <c r="D519" t="s">
+        <v>6</v>
+      </c>
+      <c r="E519" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C520" t="s">
+        <v>7</v>
+      </c>
+      <c r="D520" t="s">
+        <v>8</v>
+      </c>
+      <c r="E520" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>2</v>
+      </c>
+      <c r="D521" t="s">
+        <v>3</v>
+      </c>
+      <c r="E521" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B522" t="s">
+        <v>5</v>
+      </c>
+      <c r="D522" t="s">
+        <v>6</v>
+      </c>
+      <c r="E522" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C523" t="s">
+        <v>7</v>
+      </c>
+      <c r="D523" t="s">
+        <v>8</v>
+      </c>
+      <c r="E523" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>2</v>
+      </c>
+      <c r="D524" t="s">
+        <v>3</v>
+      </c>
+      <c r="E524" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B525" t="s">
+        <v>5</v>
+      </c>
+      <c r="D525" t="s">
+        <v>6</v>
+      </c>
+      <c r="E525" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C526" t="s">
+        <v>7</v>
+      </c>
+      <c r="D526" t="s">
+        <v>8</v>
+      </c>
+      <c r="E526" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>2</v>
+      </c>
+      <c r="D527" t="s">
+        <v>3</v>
+      </c>
+      <c r="E527" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B528" t="s">
+        <v>5</v>
+      </c>
+      <c r="D528" t="s">
+        <v>6</v>
+      </c>
+      <c r="E528" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C529" t="s">
+        <v>7</v>
+      </c>
+      <c r="D529" t="s">
+        <v>8</v>
+      </c>
+      <c r="E529" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>2</v>
+      </c>
+      <c r="D530" t="s">
+        <v>3</v>
+      </c>
+      <c r="E530" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B531" t="s">
+        <v>5</v>
+      </c>
+      <c r="D531" t="s">
+        <v>6</v>
+      </c>
+      <c r="E531" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C532" t="s">
+        <v>7</v>
+      </c>
+      <c r="D532" t="s">
+        <v>8</v>
+      </c>
+      <c r="E532" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>2</v>
+      </c>
+      <c r="D533" t="s">
+        <v>3</v>
+      </c>
+      <c r="E533" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B534" t="s">
+        <v>5</v>
+      </c>
+      <c r="D534" t="s">
+        <v>6</v>
+      </c>
+      <c r="E534" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C535" t="s">
+        <v>7</v>
+      </c>
+      <c r="D535" t="s">
+        <v>8</v>
+      </c>
+      <c r="E535" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>2</v>
+      </c>
+      <c r="D536" t="s">
+        <v>3</v>
+      </c>
+      <c r="E536" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B537" t="s">
+        <v>5</v>
+      </c>
+      <c r="D537" t="s">
+        <v>6</v>
+      </c>
+      <c r="E537" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C538" t="s">
+        <v>7</v>
+      </c>
+      <c r="D538" t="s">
+        <v>8</v>
+      </c>
+      <c r="E538" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>2</v>
+      </c>
+      <c r="D539" t="s">
+        <v>3</v>
+      </c>
+      <c r="E539" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B540" t="s">
+        <v>5</v>
+      </c>
+      <c r="D540" t="s">
+        <v>6</v>
+      </c>
+      <c r="E540" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C541" t="s">
+        <v>7</v>
+      </c>
+      <c r="D541" t="s">
+        <v>8</v>
+      </c>
+      <c r="E541" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>2</v>
+      </c>
+      <c r="D542" t="s">
+        <v>3</v>
+      </c>
+      <c r="E542" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B543" t="s">
+        <v>5</v>
+      </c>
+      <c r="D543" t="s">
+        <v>6</v>
+      </c>
+      <c r="E543" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C544" t="s">
+        <v>7</v>
+      </c>
+      <c r="D544" t="s">
+        <v>8</v>
+      </c>
+      <c r="E544" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>2</v>
+      </c>
+      <c r="D545" t="s">
+        <v>3</v>
+      </c>
+      <c r="E545" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B546" t="s">
+        <v>5</v>
+      </c>
+      <c r="D546" t="s">
+        <v>6</v>
+      </c>
+      <c r="E546" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C547" t="s">
+        <v>7</v>
+      </c>
+      <c r="D547" t="s">
+        <v>8</v>
+      </c>
+      <c r="E547" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>2</v>
+      </c>
+      <c r="D548" t="s">
+        <v>3</v>
+      </c>
+      <c r="E548" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B549" t="s">
+        <v>5</v>
+      </c>
+      <c r="D549" t="s">
+        <v>6</v>
+      </c>
+      <c r="E549" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C550" t="s">
+        <v>7</v>
+      </c>
+      <c r="D550" t="s">
+        <v>8</v>
+      </c>
+      <c r="E550" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>2</v>
+      </c>
+      <c r="D551" t="s">
+        <v>3</v>
+      </c>
+      <c r="E551" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B552" t="s">
+        <v>5</v>
+      </c>
+      <c r="D552" t="s">
+        <v>6</v>
+      </c>
+      <c r="E552" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C553" t="s">
+        <v>7</v>
+      </c>
+      <c r="D553" t="s">
+        <v>8</v>
+      </c>
+      <c r="E553" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>2</v>
+      </c>
+      <c r="D554" t="s">
+        <v>3</v>
+      </c>
+      <c r="E554" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B555" t="s">
+        <v>5</v>
+      </c>
+      <c r="D555" t="s">
+        <v>6</v>
+      </c>
+      <c r="E555" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C556" t="s">
+        <v>7</v>
+      </c>
+      <c r="D556" t="s">
+        <v>8</v>
+      </c>
+      <c r="E556" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>2</v>
+      </c>
+      <c r="D557" t="s">
+        <v>3</v>
+      </c>
+      <c r="E557" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B558" t="s">
+        <v>5</v>
+      </c>
+      <c r="D558" t="s">
+        <v>6</v>
+      </c>
+      <c r="E558" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C559" t="s">
+        <v>7</v>
+      </c>
+      <c r="D559" t="s">
+        <v>8</v>
+      </c>
+      <c r="E559" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>2</v>
+      </c>
+      <c r="D560" t="s">
+        <v>3</v>
+      </c>
+      <c r="E560" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B561" t="s">
+        <v>5</v>
+      </c>
+      <c r="D561" t="s">
+        <v>6</v>
+      </c>
+      <c r="E561" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C562" t="s">
+        <v>7</v>
+      </c>
+      <c r="D562" t="s">
+        <v>8</v>
+      </c>
+      <c r="E562" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>2</v>
+      </c>
+      <c r="D563" t="s">
+        <v>3</v>
+      </c>
+      <c r="E563" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B564" t="s">
+        <v>5</v>
+      </c>
+      <c r="D564" t="s">
+        <v>6</v>
+      </c>
+      <c r="E564" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C565" t="s">
+        <v>7</v>
+      </c>
+      <c r="D565" t="s">
+        <v>8</v>
+      </c>
+      <c r="E565" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>2</v>
+      </c>
+      <c r="D566" t="s">
+        <v>3</v>
+      </c>
+      <c r="E566" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B567" t="s">
+        <v>5</v>
+      </c>
+      <c r="D567" t="s">
+        <v>6</v>
+      </c>
+      <c r="E567" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C568" t="s">
+        <v>7</v>
+      </c>
+      <c r="D568" t="s">
+        <v>8</v>
+      </c>
+      <c r="E568" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>2</v>
+      </c>
+      <c r="D569" t="s">
+        <v>3</v>
+      </c>
+      <c r="E569" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B570" t="s">
+        <v>5</v>
+      </c>
+      <c r="D570" t="s">
+        <v>6</v>
+      </c>
+      <c r="E570" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C571" t="s">
+        <v>7</v>
+      </c>
+      <c r="D571" t="s">
+        <v>8</v>
+      </c>
+      <c r="E571" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>2</v>
+      </c>
+      <c r="D572" t="s">
+        <v>3</v>
+      </c>
+      <c r="E572" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B573" t="s">
+        <v>5</v>
+      </c>
+      <c r="D573" t="s">
+        <v>6</v>
+      </c>
+      <c r="E573" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C574" t="s">
+        <v>7</v>
+      </c>
+      <c r="D574" t="s">
+        <v>8</v>
+      </c>
+      <c r="E574" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>2</v>
+      </c>
+      <c r="D575" t="s">
+        <v>3</v>
+      </c>
+      <c r="E575" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B576" t="s">
+        <v>5</v>
+      </c>
+      <c r="D576" t="s">
+        <v>6</v>
+      </c>
+      <c r="E576" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C577" t="s">
+        <v>7</v>
+      </c>
+      <c r="D577" t="s">
+        <v>8</v>
+      </c>
+      <c r="E577" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>2</v>
+      </c>
+      <c r="D578" t="s">
+        <v>3</v>
+      </c>
+      <c r="E578" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B579" t="s">
+        <v>5</v>
+      </c>
+      <c r="D579" t="s">
+        <v>6</v>
+      </c>
+      <c r="E579" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C580" t="s">
+        <v>7</v>
+      </c>
+      <c r="D580" t="s">
+        <v>8</v>
+      </c>
+      <c r="E580" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>2</v>
+      </c>
+      <c r="D581" t="s">
+        <v>3</v>
+      </c>
+      <c r="E581" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B582" t="s">
+        <v>5</v>
+      </c>
+      <c r="D582" t="s">
+        <v>6</v>
+      </c>
+      <c r="E582" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C583" t="s">
+        <v>7</v>
+      </c>
+      <c r="D583" t="s">
+        <v>8</v>
+      </c>
+      <c r="E583" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>2</v>
+      </c>
+      <c r="D584" t="s">
+        <v>3</v>
+      </c>
+      <c r="E584" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B585" t="s">
+        <v>5</v>
+      </c>
+      <c r="D585" t="s">
+        <v>6</v>
+      </c>
+      <c r="E585" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C586" t="s">
+        <v>7</v>
+      </c>
+      <c r="D586" t="s">
+        <v>8</v>
+      </c>
+      <c r="E586" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>2</v>
+      </c>
+      <c r="D587" t="s">
+        <v>3</v>
+      </c>
+      <c r="E587" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B588" t="s">
+        <v>5</v>
+      </c>
+      <c r="D588" t="s">
+        <v>6</v>
+      </c>
+      <c r="E588" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C589" t="s">
+        <v>7</v>
+      </c>
+      <c r="D589" t="s">
+        <v>8</v>
+      </c>
+      <c r="E589" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>2</v>
+      </c>
+      <c r="D590" t="s">
+        <v>3</v>
+      </c>
+      <c r="E590" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B591" t="s">
+        <v>5</v>
+      </c>
+      <c r="D591" t="s">
+        <v>6</v>
+      </c>
+      <c r="E591" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C592" t="s">
+        <v>7</v>
+      </c>
+      <c r="D592" t="s">
+        <v>8</v>
+      </c>
+      <c r="E592" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>2</v>
+      </c>
+      <c r="D593" t="s">
+        <v>3</v>
+      </c>
+      <c r="E593" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B594" t="s">
+        <v>5</v>
+      </c>
+      <c r="D594" t="s">
+        <v>6</v>
+      </c>
+      <c r="E594" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C595" t="s">
+        <v>7</v>
+      </c>
+      <c r="D595" t="s">
+        <v>8</v>
+      </c>
+      <c r="E595" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>2</v>
+      </c>
+      <c r="D596" t="s">
+        <v>3</v>
+      </c>
+      <c r="E596" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B597" t="s">
+        <v>5</v>
+      </c>
+      <c r="D597" t="s">
+        <v>6</v>
+      </c>
+      <c r="E597" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C598" t="s">
+        <v>7</v>
+      </c>
+      <c r="D598" t="s">
+        <v>8</v>
+      </c>
+      <c r="E598" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>2</v>
+      </c>
+      <c r="D599" t="s">
+        <v>3</v>
+      </c>
+      <c r="E599" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B600" t="s">
+        <v>5</v>
+      </c>
+      <c r="D600" t="s">
+        <v>6</v>
+      </c>
+      <c r="E600" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C601" t="s">
+        <v>7</v>
+      </c>
+      <c r="D601" t="s">
+        <v>8</v>
+      </c>
+      <c r="E601" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>2</v>
+      </c>
+      <c r="D602" t="s">
+        <v>3</v>
+      </c>
+      <c r="E602" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B603" t="s">
+        <v>5</v>
+      </c>
+      <c r="D603" t="s">
+        <v>6</v>
+      </c>
+      <c r="E603" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C604" t="s">
+        <v>7</v>
+      </c>
+      <c r="D604" t="s">
+        <v>8</v>
+      </c>
+      <c r="E604" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>2</v>
+      </c>
+      <c r="D605" t="s">
+        <v>3</v>
+      </c>
+      <c r="E605" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B606" t="s">
+        <v>5</v>
+      </c>
+      <c r="D606" t="s">
+        <v>6</v>
+      </c>
+      <c r="E606" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C607" t="s">
+        <v>7</v>
+      </c>
+      <c r="D607" t="s">
+        <v>8</v>
+      </c>
+      <c r="E607" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>2</v>
+      </c>
+      <c r="D608" t="s">
+        <v>3</v>
+      </c>
+      <c r="E608" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B609" t="s">
+        <v>5</v>
+      </c>
+      <c r="D609" t="s">
+        <v>6</v>
+      </c>
+      <c r="E609" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C610" t="s">
+        <v>7</v>
+      </c>
+      <c r="D610" t="s">
+        <v>8</v>
+      </c>
+      <c r="E610" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>2</v>
+      </c>
+      <c r="D611" t="s">
+        <v>3</v>
+      </c>
+      <c r="E611" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B612" t="s">
+        <v>5</v>
+      </c>
+      <c r="D612" t="s">
+        <v>6</v>
+      </c>
+      <c r="E612" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C613" t="s">
+        <v>7</v>
+      </c>
+      <c r="D613" t="s">
+        <v>8</v>
+      </c>
+      <c r="E613" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>2</v>
+      </c>
+      <c r="D614" t="s">
+        <v>3</v>
+      </c>
+      <c r="E614" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B615" t="s">
+        <v>5</v>
+      </c>
+      <c r="D615" t="s">
+        <v>6</v>
+      </c>
+      <c r="E615" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C616" t="s">
+        <v>7</v>
+      </c>
+      <c r="D616" t="s">
+        <v>8</v>
+      </c>
+      <c r="E616" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>2</v>
+      </c>
+      <c r="D617" t="s">
+        <v>3</v>
+      </c>
+      <c r="E617" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B618" t="s">
+        <v>5</v>
+      </c>
+      <c r="D618" t="s">
+        <v>6</v>
+      </c>
+      <c r="E618" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C619" t="s">
+        <v>7</v>
+      </c>
+      <c r="D619" t="s">
+        <v>8</v>
+      </c>
+      <c r="E619" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>2</v>
+      </c>
+      <c r="D620" t="s">
+        <v>3</v>
+      </c>
+      <c r="E620" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B621" t="s">
+        <v>5</v>
+      </c>
+      <c r="D621" t="s">
+        <v>6</v>
+      </c>
+      <c r="E621" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C622" t="s">
+        <v>7</v>
+      </c>
+      <c r="D622" t="s">
+        <v>8</v>
+      </c>
+      <c r="E622" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>2</v>
+      </c>
+      <c r="D623" t="s">
+        <v>3</v>
+      </c>
+      <c r="E623" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B624" t="s">
+        <v>5</v>
+      </c>
+      <c r="D624" t="s">
+        <v>6</v>
+      </c>
+      <c r="E624" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C625" t="s">
+        <v>7</v>
+      </c>
+      <c r="D625" t="s">
+        <v>8</v>
+      </c>
+      <c r="E625" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>2</v>
+      </c>
+      <c r="D626" t="s">
+        <v>3</v>
+      </c>
+      <c r="E626" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B627" t="s">
+        <v>5</v>
+      </c>
+      <c r="D627" t="s">
+        <v>6</v>
+      </c>
+      <c r="E627" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C628" t="s">
+        <v>7</v>
+      </c>
+      <c r="D628" t="s">
+        <v>8</v>
+      </c>
+      <c r="E628" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>2</v>
+      </c>
+      <c r="D629" t="s">
+        <v>3</v>
+      </c>
+      <c r="E629" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B630" t="s">
+        <v>5</v>
+      </c>
+      <c r="D630" t="s">
+        <v>6</v>
+      </c>
+      <c r="E630" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C631" t="s">
+        <v>7</v>
+      </c>
+      <c r="D631" t="s">
+        <v>8</v>
+      </c>
+      <c r="E631" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>2</v>
+      </c>
+      <c r="D632" t="s">
+        <v>3</v>
+      </c>
+      <c r="E632" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B633" t="s">
+        <v>5</v>
+      </c>
+      <c r="D633" t="s">
+        <v>6</v>
+      </c>
+      <c r="E633" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C634" t="s">
+        <v>7</v>
+      </c>
+      <c r="D634" t="s">
+        <v>8</v>
+      </c>
+      <c r="E634" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>2</v>
+      </c>
+      <c r="D635" t="s">
+        <v>3</v>
+      </c>
+      <c r="E635" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B636" t="s">
+        <v>5</v>
+      </c>
+      <c r="D636" t="s">
+        <v>6</v>
+      </c>
+      <c r="E636" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C637" t="s">
+        <v>7</v>
+      </c>
+      <c r="D637" t="s">
+        <v>8</v>
+      </c>
+      <c r="E637" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>2</v>
+      </c>
+      <c r="D638" t="s">
+        <v>3</v>
+      </c>
+      <c r="E638" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B639" t="s">
+        <v>5</v>
+      </c>
+      <c r="D639" t="s">
+        <v>6</v>
+      </c>
+      <c r="E639" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C640" t="s">
+        <v>7</v>
+      </c>
+      <c r="D640" t="s">
+        <v>8</v>
+      </c>
+      <c r="E640" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>2</v>
+      </c>
+      <c r="D641" t="s">
+        <v>3</v>
+      </c>
+      <c r="E641" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B642" t="s">
+        <v>5</v>
+      </c>
+      <c r="D642" t="s">
+        <v>6</v>
+      </c>
+      <c r="E642" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C643" t="s">
+        <v>7</v>
+      </c>
+      <c r="D643" t="s">
+        <v>8</v>
+      </c>
+      <c r="E643" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>2</v>
+      </c>
+      <c r="D644" t="s">
+        <v>3</v>
+      </c>
+      <c r="E644" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B645" t="s">
+        <v>5</v>
+      </c>
+      <c r="D645" t="s">
+        <v>6</v>
+      </c>
+      <c r="E645" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C646" t="s">
+        <v>7</v>
+      </c>
+      <c r="D646" t="s">
+        <v>8</v>
+      </c>
+      <c r="E646" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>2</v>
+      </c>
+      <c r="D647" t="s">
+        <v>3</v>
+      </c>
+      <c r="E647" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B648" t="s">
+        <v>5</v>
+      </c>
+      <c r="D648" t="s">
+        <v>6</v>
+      </c>
+      <c r="E648" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C649" t="s">
+        <v>7</v>
+      </c>
+      <c r="D649" t="s">
+        <v>8</v>
+      </c>
+      <c r="E649" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>2</v>
+      </c>
+      <c r="D650" t="s">
+        <v>3</v>
+      </c>
+      <c r="E650" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B651" t="s">
+        <v>5</v>
+      </c>
+      <c r="D651" t="s">
+        <v>6</v>
+      </c>
+      <c r="E651" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C652" t="s">
+        <v>7</v>
+      </c>
+      <c r="D652" t="s">
+        <v>8</v>
+      </c>
+      <c r="E652" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>2</v>
+      </c>
+      <c r="D653" t="s">
+        <v>3</v>
+      </c>
+      <c r="E653" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B654" t="s">
+        <v>5</v>
+      </c>
+      <c r="D654" t="s">
+        <v>6</v>
+      </c>
+      <c r="E654" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C655" t="s">
+        <v>7</v>
+      </c>
+      <c r="D655" t="s">
+        <v>8</v>
+      </c>
+      <c r="E655" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>2</v>
+      </c>
+      <c r="D656" t="s">
+        <v>3</v>
+      </c>
+      <c r="E656" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B657" t="s">
+        <v>5</v>
+      </c>
+      <c r="D657" t="s">
+        <v>6</v>
+      </c>
+      <c r="E657" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C658" t="s">
+        <v>7</v>
+      </c>
+      <c r="D658" t="s">
+        <v>8</v>
+      </c>
+      <c r="E658" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>2</v>
+      </c>
+      <c r="D659" t="s">
+        <v>3</v>
+      </c>
+      <c r="E659" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B660" t="s">
+        <v>5</v>
+      </c>
+      <c r="D660" t="s">
+        <v>6</v>
+      </c>
+      <c r="E660" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C661" t="s">
+        <v>7</v>
+      </c>
+      <c r="D661" t="s">
+        <v>8</v>
+      </c>
+      <c r="E661" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>2</v>
+      </c>
+      <c r="D662" t="s">
+        <v>3</v>
+      </c>
+      <c r="E662" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B663" t="s">
+        <v>5</v>
+      </c>
+      <c r="D663" t="s">
+        <v>6</v>
+      </c>
+      <c r="E663" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C664" t="s">
+        <v>7</v>
+      </c>
+      <c r="D664" t="s">
+        <v>8</v>
+      </c>
+      <c r="E664" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>2</v>
+      </c>
+      <c r="D665" t="s">
+        <v>3</v>
+      </c>
+      <c r="E665" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B666" t="s">
+        <v>5</v>
+      </c>
+      <c r="D666" t="s">
+        <v>6</v>
+      </c>
+      <c r="E666" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C667" t="s">
+        <v>7</v>
+      </c>
+      <c r="D667" t="s">
+        <v>8</v>
+      </c>
+      <c r="E667" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>2</v>
+      </c>
+      <c r="D668" t="s">
+        <v>3</v>
+      </c>
+      <c r="E668" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B669" t="s">
+        <v>5</v>
+      </c>
+      <c r="D669" t="s">
+        <v>6</v>
+      </c>
+      <c r="E669" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C670" t="s">
+        <v>7</v>
+      </c>
+      <c r="D670" t="s">
+        <v>8</v>
+      </c>
+      <c r="E670" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>2</v>
+      </c>
+      <c r="D671" t="s">
+        <v>3</v>
+      </c>
+      <c r="E671" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B672" t="s">
+        <v>5</v>
+      </c>
+      <c r="D672" t="s">
+        <v>6</v>
+      </c>
+      <c r="E672" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C673" t="s">
+        <v>7</v>
+      </c>
+      <c r="D673" t="s">
+        <v>8</v>
+      </c>
+      <c r="E673" t="s">
         <v>4</v>
       </c>
     </row>

--- a/database/target.xlsx
+++ b/database/target.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>TONAME</t>
   </si>
@@ -33,61 +33,121 @@
     <t>Lynn</t>
   </si>
   <si>
-    <t>Elva.Lynn1987@gmail.com</t>
-  </si>
-  <si>
     <t>Daphne</t>
   </si>
   <si>
     <t>Boone</t>
   </si>
   <si>
-    <t>Daphne.Boone2002@gmail.com</t>
-  </si>
-  <si>
     <t>Loretta</t>
   </si>
   <si>
     <t>Douglas</t>
   </si>
   <si>
-    <t>Loretta.Douglas1999@gmail.com</t>
-  </si>
-  <si>
     <t>Rene</t>
   </si>
   <si>
     <t>Huber</t>
   </si>
   <si>
-    <t>Rene.Huber1999@gmail.com</t>
-  </si>
-  <si>
     <t>Paula</t>
   </si>
   <si>
     <t>Robertson</t>
   </si>
   <si>
+    <t>Keri</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Polly</t>
+  </si>
+  <si>
+    <t>Whitehead</t>
+  </si>
+  <si>
+    <t>Samantha.Browning.1980@gmail.com</t>
+  </si>
+  <si>
+    <t>Sophie.Carr.1982@gmail.com</t>
+  </si>
+  <si>
+    <t>Judith.Holland.1983@gmail.com</t>
+  </si>
+  <si>
+    <t>Jeanie.Michael.1984@gmail.com</t>
+  </si>
+  <si>
+    <t>Kathrine.Armstrong.1985@gmail.com</t>
+  </si>
+  <si>
+    <t>Wendy.Stafford.1986@gmail.com</t>
+  </si>
+  <si>
+    <t>Melanie.Sellers.1987@gmail.com</t>
+  </si>
+  <si>
+    <t>Beverley.Snow.1988@gmail.com</t>
+  </si>
+  <si>
+    <t>Becky.Ramsey.1989@gmail.com</t>
+  </si>
+  <si>
+    <t>Jamie.Hendricks.1991@gmail.com</t>
+  </si>
+  <si>
+    <t>Mai.Merritt.1992@gmail.com</t>
+  </si>
+  <si>
+    <t>Kristina.Clayton.1980@gmail.com</t>
+  </si>
+  <si>
+    <t>Noelle.Warren.1981@gmail.com</t>
+  </si>
+  <si>
+    <t>Freda.Whitney.1982@gmail.com</t>
+  </si>
+  <si>
+    <t>Jordan.Mendoza.1984@gmail.com</t>
+  </si>
+  <si>
+    <t>Alejandra.Moss.1984@gmail.com</t>
+  </si>
+  <si>
+    <t>Sandy.Hawkins.1985@gmail.com</t>
+  </si>
+  <si>
     <t>Paula.Robertson2000@gmail.com</t>
   </si>
   <si>
-    <t>Keri</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
     <t>Keri.Long1998@gmail.com</t>
   </si>
   <si>
-    <t>Polly</t>
-  </si>
-  <si>
-    <t>Whitehead</t>
-  </si>
-  <si>
     <t>Polly.Whitehead1997@gmail.com</t>
+  </si>
+  <si>
+    <t>Anne.Carlson1999@gmail.com</t>
+  </si>
+  <si>
+    <t>Aurelia.Rodriquez1995@gmail.com</t>
+  </si>
+  <si>
+    <t>Courtney.Holcomb.1992@gmail.com</t>
+  </si>
+  <si>
+    <t>Jill.Middleton.1980@gmail.com</t>
+  </si>
+  <si>
+    <t>Justine.Lester.1981@gmail.com</t>
+  </si>
+  <si>
+    <t>Ola.Hampton.1982@gmail.com</t>
+  </si>
+  <si>
+    <t>Earlene.Simon.1983@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -897,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E19" sqref="E19:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,77 +990,174 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/target.xlsx
+++ b/database/target.xlsx
@@ -957,15 +957,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E28"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -975,187 +975,196 @@
       <c r="C1">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
         <v>42</v>
       </c>
     </row>

--- a/database/target.xlsx
+++ b/database/target.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TONAME</t>
   </si>
@@ -27,127 +27,28 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>Elva</t>
+    <t>_anders@live.se</t>
   </si>
   <si>
-    <t>Lynn</t>
+    <t>_anton@live.se</t>
   </si>
   <si>
-    <t>Daphne</t>
+    <t>_armend_@live.se</t>
   </si>
   <si>
-    <t>Boone</t>
+    <t>kennard@gmail.com</t>
   </si>
   <si>
-    <t>Loretta</t>
+    <t>watts@gmail.com</t>
   </si>
   <si>
-    <t>Douglas</t>
+    <t>designs@gmail.com</t>
   </si>
   <si>
-    <t>Rene</t>
+    <t>michael.sun@gmail.com</t>
   </si>
   <si>
-    <t>Huber</t>
-  </si>
-  <si>
-    <t>Paula</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>Keri</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Polly</t>
-  </si>
-  <si>
-    <t>Whitehead</t>
-  </si>
-  <si>
-    <t>Samantha.Browning.1980@gmail.com</t>
-  </si>
-  <si>
-    <t>Sophie.Carr.1982@gmail.com</t>
-  </si>
-  <si>
-    <t>Judith.Holland.1983@gmail.com</t>
-  </si>
-  <si>
-    <t>Jeanie.Michael.1984@gmail.com</t>
-  </si>
-  <si>
-    <t>Kathrine.Armstrong.1985@gmail.com</t>
-  </si>
-  <si>
-    <t>Wendy.Stafford.1986@gmail.com</t>
-  </si>
-  <si>
-    <t>Melanie.Sellers.1987@gmail.com</t>
-  </si>
-  <si>
-    <t>Beverley.Snow.1988@gmail.com</t>
-  </si>
-  <si>
-    <t>Becky.Ramsey.1989@gmail.com</t>
-  </si>
-  <si>
-    <t>Jamie.Hendricks.1991@gmail.com</t>
-  </si>
-  <si>
-    <t>Mai.Merritt.1992@gmail.com</t>
-  </si>
-  <si>
-    <t>Kristina.Clayton.1980@gmail.com</t>
-  </si>
-  <si>
-    <t>Noelle.Warren.1981@gmail.com</t>
-  </si>
-  <si>
-    <t>Freda.Whitney.1982@gmail.com</t>
-  </si>
-  <si>
-    <t>Jordan.Mendoza.1984@gmail.com</t>
-  </si>
-  <si>
-    <t>Alejandra.Moss.1984@gmail.com</t>
-  </si>
-  <si>
-    <t>Sandy.Hawkins.1985@gmail.com</t>
-  </si>
-  <si>
-    <t>Paula.Robertson2000@gmail.com</t>
-  </si>
-  <si>
-    <t>Keri.Long1998@gmail.com</t>
-  </si>
-  <si>
-    <t>Polly.Whitehead1997@gmail.com</t>
-  </si>
-  <si>
-    <t>Anne.Carlson1999@gmail.com</t>
-  </si>
-  <si>
-    <t>Aurelia.Rodriquez1995@gmail.com</t>
-  </si>
-  <si>
-    <t>Courtney.Holcomb.1992@gmail.com</t>
-  </si>
-  <si>
-    <t>Jill.Middleton.1980@gmail.com</t>
-  </si>
-  <si>
-    <t>Justine.Lester.1981@gmail.com</t>
-  </si>
-  <si>
-    <t>Ola.Hampton.1982@gmail.com</t>
-  </si>
-  <si>
-    <t>Earlene.Simon.1983@gmail.com</t>
+    <t>samsalau@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -631,11 +532,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -957,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I248024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,180 +890,43 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70259" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114093" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I114093" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="145252" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I145252" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="183666" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I183666" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="248024" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I248024" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/database/target.xlsx
+++ b/database/target.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>TONAME</t>
   </si>
@@ -27,28 +27,127 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>_anders@live.se</t>
-  </si>
-  <si>
-    <t>_anton@live.se</t>
-  </si>
-  <si>
-    <t>_armend_@live.se</t>
-  </si>
-  <si>
-    <t>kennard@gmail.com</t>
-  </si>
-  <si>
-    <t>watts@gmail.com</t>
-  </si>
-  <si>
-    <t>designs@gmail.com</t>
-  </si>
-  <si>
-    <t>michael.sun@gmail.com</t>
-  </si>
-  <si>
-    <t>samsalau@gmail.com</t>
+    <t>Elva</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>Daphne</t>
+  </si>
+  <si>
+    <t>Boone</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Rene</t>
+  </si>
+  <si>
+    <t>Huber</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Keri</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Polly</t>
+  </si>
+  <si>
+    <t>Whitehead</t>
+  </si>
+  <si>
+    <t>Samantha.Browning.1980@gmail.com</t>
+  </si>
+  <si>
+    <t>Sophie.Carr.1982@gmail.com</t>
+  </si>
+  <si>
+    <t>Judith.Holland.1983@gmail.com</t>
+  </si>
+  <si>
+    <t>Jeanie.Michael.1984@gmail.com</t>
+  </si>
+  <si>
+    <t>Kathrine.Armstrong.1985@gmail.com</t>
+  </si>
+  <si>
+    <t>Wendy.Stafford.1986@gmail.com</t>
+  </si>
+  <si>
+    <t>Melanie.Sellers.1987@gmail.com</t>
+  </si>
+  <si>
+    <t>Beverley.Snow.1988@gmail.com</t>
+  </si>
+  <si>
+    <t>Becky.Ramsey.1989@gmail.com</t>
+  </si>
+  <si>
+    <t>Jamie.Hendricks.1991@gmail.com</t>
+  </si>
+  <si>
+    <t>Mai.Merritt.1992@gmail.com</t>
+  </si>
+  <si>
+    <t>Kristina.Clayton.1980@gmail.com</t>
+  </si>
+  <si>
+    <t>Noelle.Warren.1981@gmail.com</t>
+  </si>
+  <si>
+    <t>Freda.Whitney.1982@gmail.com</t>
+  </si>
+  <si>
+    <t>Jordan.Mendoza.1984@gmail.com</t>
+  </si>
+  <si>
+    <t>Alejandra.Moss.1984@gmail.com</t>
+  </si>
+  <si>
+    <t>Sandy.Hawkins.1985@gmail.com</t>
+  </si>
+  <si>
+    <t>Paula.Robertson2000@gmail.com</t>
+  </si>
+  <si>
+    <t>Keri.Long1998@gmail.com</t>
+  </si>
+  <si>
+    <t>Polly.Whitehead1997@gmail.com</t>
+  </si>
+  <si>
+    <t>Anne.Carlson1999@gmail.com</t>
+  </si>
+  <si>
+    <t>Aurelia.Rodriquez1995@gmail.com</t>
+  </si>
+  <si>
+    <t>Courtney.Holcomb.1992@gmail.com</t>
+  </si>
+  <si>
+    <t>Jill.Middleton.1980@gmail.com</t>
+  </si>
+  <si>
+    <t>Justine.Lester.1981@gmail.com</t>
+  </si>
+  <si>
+    <t>Ola.Hampton.1982@gmail.com</t>
+  </si>
+  <si>
+    <t>Earlene.Simon.1983@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -532,8 +631,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -855,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I248024"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,43 +992,180 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
       <c r="H4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70259" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I70259" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114093" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I114093" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145252" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I145252" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183666" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I183666" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248024" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I248024" t="s">
+      <c r="G5" t="s">
         <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/database/target.xlsx
+++ b/database/target.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upwork\2020\gmail_app\gmail_app\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>TONAME</t>
   </si>
@@ -39,122 +39,14 @@
     <t>Boone</t>
   </si>
   <si>
-    <t>Loretta</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>Rene</t>
-  </si>
-  <si>
-    <t>Huber</t>
-  </si>
-  <si>
-    <t>Paula</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>Keri</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Polly</t>
-  </si>
-  <si>
-    <t>Whitehead</t>
-  </si>
-  <si>
-    <t>Samantha.Browning.1980@gmail.com</t>
-  </si>
-  <si>
-    <t>Sophie.Carr.1982@gmail.com</t>
-  </si>
-  <si>
-    <t>Judith.Holland.1983@gmail.com</t>
-  </si>
-  <si>
-    <t>Jeanie.Michael.1984@gmail.com</t>
-  </si>
-  <si>
-    <t>Kathrine.Armstrong.1985@gmail.com</t>
-  </si>
-  <si>
-    <t>Wendy.Stafford.1986@gmail.com</t>
-  </si>
-  <si>
-    <t>Melanie.Sellers.1987@gmail.com</t>
-  </si>
-  <si>
-    <t>Beverley.Snow.1988@gmail.com</t>
-  </si>
-  <si>
-    <t>Becky.Ramsey.1989@gmail.com</t>
-  </si>
-  <si>
-    <t>Jamie.Hendricks.1991@gmail.com</t>
-  </si>
-  <si>
-    <t>Mai.Merritt.1992@gmail.com</t>
-  </si>
-  <si>
-    <t>Kristina.Clayton.1980@gmail.com</t>
-  </si>
-  <si>
-    <t>Noelle.Warren.1981@gmail.com</t>
-  </si>
-  <si>
-    <t>Freda.Whitney.1982@gmail.com</t>
-  </si>
-  <si>
-    <t>Jordan.Mendoza.1984@gmail.com</t>
-  </si>
-  <si>
-    <t>Alejandra.Moss.1984@gmail.com</t>
-  </si>
-  <si>
-    <t>Sandy.Hawkins.1985@gmail.com</t>
-  </si>
-  <si>
-    <t>Paula.Robertson2000@gmail.com</t>
-  </si>
-  <si>
-    <t>Keri.Long1998@gmail.com</t>
-  </si>
-  <si>
-    <t>Polly.Whitehead1997@gmail.com</t>
-  </si>
-  <si>
-    <t>Anne.Carlson1999@gmail.com</t>
-  </si>
-  <si>
-    <t>Aurelia.Rodriquez1995@gmail.com</t>
-  </si>
-  <si>
-    <t>Courtney.Holcomb.1992@gmail.com</t>
-  </si>
-  <si>
-    <t>Jill.Middleton.1980@gmail.com</t>
-  </si>
-  <si>
-    <t>Justine.Lester.1981@gmail.com</t>
-  </si>
-  <si>
-    <t>Ola.Hampton.1982@gmail.com</t>
-  </si>
-  <si>
-    <t>Earlene.Simon.1983@gmail.com</t>
+    <t>shahimrans64@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +177,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -587,7 +487,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -630,14 +530,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -671,6 +573,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -957,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,8 +901,8 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1009,166 +912,18 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/target.xlsx
+++ b/database/target.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>TONAME</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>shahimrans64@gmail.com</t>
+  </si>
+  <si>
+    <t>shahimran@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -863,7 +866,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,6 +917,17 @@
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,6 +937,7 @@
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/target.xlsx
+++ b/database/target.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11832"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>TONAME</t>
   </si>
@@ -27,22 +27,16 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>Elva</t>
-  </si>
-  <si>
-    <t>Lynn</t>
-  </si>
-  <si>
-    <t>Daphne</t>
-  </si>
-  <si>
-    <t>Boone</t>
-  </si>
-  <si>
     <t>shahimrans64@gmail.com</t>
   </si>
   <si>
-    <t>shahimran@outlook.com</t>
+    <t>Shah</t>
+  </si>
+  <si>
+    <t>Imran</t>
+  </si>
+  <si>
+    <t>shah_imran_sust@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -866,12 +860,12 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -897,47 +891,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId3"/>
+    <hyperlink ref="H6" r:id="rId4"/>
+    <hyperlink ref="H4" r:id="rId5"/>
+    <hyperlink ref="H5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/target.xlsx
+++ b/database/target.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Follow Up Version\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11832"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>TONAME</t>
   </si>
@@ -27,23 +27,233 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>shahimrans64@gmail.com</t>
-  </si>
-  <si>
-    <t>Shah</t>
-  </si>
-  <si>
-    <t>Imran</t>
-  </si>
-  <si>
-    <t>shah_imran_sust@outlook.com</t>
+    <t>adeleputnam310@gmail.com</t>
+  </si>
+  <si>
+    <t>melanymoss86@gmail.com</t>
+  </si>
+  <si>
+    <t>hopekhalilah110@gmail.com</t>
+  </si>
+  <si>
+    <t>angelacoffman453@gmail.com</t>
+  </si>
+  <si>
+    <t>joiehacker719@gmail.com</t>
+  </si>
+  <si>
+    <t>krush4092@gmail.com</t>
+  </si>
+  <si>
+    <t>rhodesloralee@gmail.com</t>
+  </si>
+  <si>
+    <t>kathrynepruett@gmail.com</t>
+  </si>
+  <si>
+    <t>maribeth884299mckenna884299@gmail.com</t>
+  </si>
+  <si>
+    <t>burchshanna603@gmail.com</t>
+  </si>
+  <si>
+    <t>pegdorsey88@gmail.com</t>
+  </si>
+  <si>
+    <t>an521633jensen521633@gmail.com</t>
+  </si>
+  <si>
+    <t>florenesmallwood54@gmail.com</t>
+  </si>
+  <si>
+    <t>sykesjulee530@gmail.com</t>
+  </si>
+  <si>
+    <t>yo227241@gmail.com</t>
+  </si>
+  <si>
+    <t>leonabateman7@gmail.com</t>
+  </si>
+  <si>
+    <t>exieedmonds@gmail.com</t>
+  </si>
+  <si>
+    <t>krstlabraham@gmail.com</t>
+  </si>
+  <si>
+    <t>rliz20897@gmail.com</t>
+  </si>
+  <si>
+    <t>sherilync223@gmail.com</t>
+  </si>
+  <si>
+    <t>rothhuong99@gmail.com</t>
+  </si>
+  <si>
+    <t>pamalacreech58@gmail.com</t>
+  </si>
+  <si>
+    <t>garberp108@gmail.com</t>
+  </si>
+  <si>
+    <t>jean13822bauer13822@gmail.com</t>
+  </si>
+  <si>
+    <t>georgannreese5@gmail.com</t>
+  </si>
+  <si>
+    <t>netareardon90@gmail.com</t>
+  </si>
+  <si>
+    <t>paulina82899workman82899@gmail.com</t>
+  </si>
+  <si>
+    <t>leewaddell239@gmail.com</t>
+  </si>
+  <si>
+    <t>goldsteindorinda30@gmail.com</t>
+  </si>
+  <si>
+    <t>lucienne353002graves353002@gmail.com</t>
+  </si>
+  <si>
+    <t>giordanolynda2@gmail.com</t>
+  </si>
+  <si>
+    <t>zelmaaldrich@gmail.com</t>
+  </si>
+  <si>
+    <t>riverasuzy635@gmail.com</t>
+  </si>
+  <si>
+    <t>vi262859stuart262859@gmail.com</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>Melany</t>
+  </si>
+  <si>
+    <t>Khalilah</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Joie</t>
+  </si>
+  <si>
+    <t>Karri</t>
+  </si>
+  <si>
+    <t>Loralee</t>
+  </si>
+  <si>
+    <t>Kathryne</t>
+  </si>
+  <si>
+    <t>Maribeth</t>
+  </si>
+  <si>
+    <t>Shanna</t>
+  </si>
+  <si>
+    <t>Peg</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Florene</t>
+  </si>
+  <si>
+    <t>Julee</t>
+  </si>
+  <si>
+    <t>Yvette</t>
+  </si>
+  <si>
+    <t>Leona</t>
+  </si>
+  <si>
+    <t>Exie</t>
+  </si>
+  <si>
+    <t>Kristal</t>
+  </si>
+  <si>
+    <t>Liz</t>
+  </si>
+  <si>
+    <t>Sherilyn</t>
+  </si>
+  <si>
+    <t>Huong</t>
+  </si>
+  <si>
+    <t>Pamala</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Georgann</t>
+  </si>
+  <si>
+    <t>Neta</t>
+  </si>
+  <si>
+    <t>Paulina</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Dorinda</t>
+  </si>
+  <si>
+    <t>Lucienne</t>
+  </si>
+  <si>
+    <t>Lynda</t>
+  </si>
+  <si>
+    <t>Zelma</t>
+  </si>
+  <si>
+    <t>Suzy</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>Enzim</t>
+  </si>
+  <si>
+    <t>en2contact@gmail.com</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Minisegwaycenter@gmail.com</t>
+  </si>
+  <si>
+    <t>gmonster.videos@gmail.com</t>
+  </si>
+  <si>
+    <t>Gmon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +395,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="33">
@@ -531,55 +748,53 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 1. jelölőszín" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 2. jelölőszín" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 3. jelölőszín" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 4. jelölőszín" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 5. jelölőszín" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 6. jelölőszín" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 1. jelölőszín" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 2. jelölőszín" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 3. jelölőszín" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 4. jelölőszín" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 5. jelölőszín" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 6. jelölőszín" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 1. jelölőszín" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 2. jelölőszín" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 3. jelölőszín" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 4. jelölőszín" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 5. jelölőszín" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 6. jelölőszín" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bevitel" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Cím" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Címsor 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Címsor 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Címsor 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Címsor 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Ellenőrzőcella" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Figyelmeztetés" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Hivatkozás" xfId="42" builtinId="8"/>
+    <cellStyle name="Hivatkozott cella" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Jegyzet" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Jó" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Kimenet" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Magyarázó szöveg" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Összesen" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Rossz" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Semleges" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Számítás" xfId="11" builtinId="22" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -595,7 +810,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -857,15 +1072,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -891,84 +1106,308 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H9" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H7" r:id="rId3"/>
-    <hyperlink ref="H6" r:id="rId4"/>
-    <hyperlink ref="H4" r:id="rId5"/>
-    <hyperlink ref="H5" r:id="rId6"/>
+    <hyperlink ref="H7" r:id="rId1"/>
+    <hyperlink ref="H14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/database/target.xlsx
+++ b/database/target.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Follow Up Version\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app_old\gmail_app_old\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>TONAME</t>
   </si>
@@ -27,232 +27,58 @@
     <t>EMAIL</t>
   </si>
   <si>
+    <t>Adele</t>
+  </si>
+  <si>
     <t>adeleputnam310@gmail.com</t>
   </si>
   <si>
+    <t>Melany</t>
+  </si>
+  <si>
     <t>melanymoss86@gmail.com</t>
   </si>
   <si>
+    <t>Khalilah</t>
+  </si>
+  <si>
     <t>hopekhalilah110@gmail.com</t>
   </si>
   <si>
+    <t>Angela</t>
+  </si>
+  <si>
     <t>angelacoffman453@gmail.com</t>
   </si>
   <si>
+    <t>Joie</t>
+  </si>
+  <si>
     <t>joiehacker719@gmail.com</t>
   </si>
   <si>
+    <t>Enzim</t>
+  </si>
+  <si>
+    <t>en2contact@gmail.com</t>
+  </si>
+  <si>
+    <t>Karri</t>
+  </si>
+  <si>
     <t>krush4092@gmail.com</t>
   </si>
   <si>
+    <t>Loralee</t>
+  </si>
+  <si>
     <t>rhodesloralee@gmail.com</t>
-  </si>
-  <si>
-    <t>kathrynepruett@gmail.com</t>
-  </si>
-  <si>
-    <t>maribeth884299mckenna884299@gmail.com</t>
-  </si>
-  <si>
-    <t>burchshanna603@gmail.com</t>
-  </si>
-  <si>
-    <t>pegdorsey88@gmail.com</t>
-  </si>
-  <si>
-    <t>an521633jensen521633@gmail.com</t>
-  </si>
-  <si>
-    <t>florenesmallwood54@gmail.com</t>
-  </si>
-  <si>
-    <t>sykesjulee530@gmail.com</t>
-  </si>
-  <si>
-    <t>yo227241@gmail.com</t>
-  </si>
-  <si>
-    <t>leonabateman7@gmail.com</t>
-  </si>
-  <si>
-    <t>exieedmonds@gmail.com</t>
-  </si>
-  <si>
-    <t>krstlabraham@gmail.com</t>
-  </si>
-  <si>
-    <t>rliz20897@gmail.com</t>
-  </si>
-  <si>
-    <t>sherilync223@gmail.com</t>
-  </si>
-  <si>
-    <t>rothhuong99@gmail.com</t>
-  </si>
-  <si>
-    <t>pamalacreech58@gmail.com</t>
-  </si>
-  <si>
-    <t>garberp108@gmail.com</t>
-  </si>
-  <si>
-    <t>jean13822bauer13822@gmail.com</t>
-  </si>
-  <si>
-    <t>georgannreese5@gmail.com</t>
-  </si>
-  <si>
-    <t>netareardon90@gmail.com</t>
-  </si>
-  <si>
-    <t>paulina82899workman82899@gmail.com</t>
-  </si>
-  <si>
-    <t>leewaddell239@gmail.com</t>
-  </si>
-  <si>
-    <t>goldsteindorinda30@gmail.com</t>
-  </si>
-  <si>
-    <t>lucienne353002graves353002@gmail.com</t>
-  </si>
-  <si>
-    <t>giordanolynda2@gmail.com</t>
-  </si>
-  <si>
-    <t>zelmaaldrich@gmail.com</t>
-  </si>
-  <si>
-    <t>riverasuzy635@gmail.com</t>
-  </si>
-  <si>
-    <t>vi262859stuart262859@gmail.com</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
-    <t>Melany</t>
-  </si>
-  <si>
-    <t>Khalilah</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>Joie</t>
-  </si>
-  <si>
-    <t>Karri</t>
-  </si>
-  <si>
-    <t>Loralee</t>
-  </si>
-  <si>
-    <t>Kathryne</t>
-  </si>
-  <si>
-    <t>Maribeth</t>
-  </si>
-  <si>
-    <t>Shanna</t>
-  </si>
-  <si>
-    <t>Peg</t>
-  </si>
-  <si>
-    <t>An</t>
-  </si>
-  <si>
-    <t>Florene</t>
-  </si>
-  <si>
-    <t>Julee</t>
-  </si>
-  <si>
-    <t>Yvette</t>
-  </si>
-  <si>
-    <t>Leona</t>
-  </si>
-  <si>
-    <t>Exie</t>
-  </si>
-  <si>
-    <t>Kristal</t>
-  </si>
-  <si>
-    <t>Liz</t>
-  </si>
-  <si>
-    <t>Sherilyn</t>
-  </si>
-  <si>
-    <t>Huong</t>
-  </si>
-  <si>
-    <t>Pamala</t>
-  </si>
-  <si>
-    <t>Pa</t>
-  </si>
-  <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>Georgann</t>
-  </si>
-  <si>
-    <t>Neta</t>
-  </si>
-  <si>
-    <t>Paulina</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Dorinda</t>
-  </si>
-  <si>
-    <t>Lucienne</t>
-  </si>
-  <si>
-    <t>Lynda</t>
-  </si>
-  <si>
-    <t>Zelma</t>
-  </si>
-  <si>
-    <t>Suzy</t>
-  </si>
-  <si>
-    <t>Vi</t>
-  </si>
-  <si>
-    <t>Enzim</t>
-  </si>
-  <si>
-    <t>en2contact@gmail.com</t>
-  </si>
-  <si>
-    <t>Mini</t>
-  </si>
-  <si>
-    <t>Minisegwaycenter@gmail.com</t>
-  </si>
-  <si>
-    <t>gmonster.videos@gmail.com</t>
-  </si>
-  <si>
-    <t>Gmon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -752,49 +578,49 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 1. jelölőszín" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 2. jelölőszín" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 3. jelölőszín" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 4. jelölőszín" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 5. jelölőszín" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 6. jelölőszín" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 1. jelölőszín" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 2. jelölőszín" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 3. jelölőszín" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 4. jelölőszín" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 5. jelölőszín" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 6. jelölőszín" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 1. jelölőszín" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 2. jelölőszín" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 3. jelölőszín" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 4. jelölőszín" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 5. jelölőszín" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 6. jelölőszín" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bevitel" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Cím" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Címsor 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Címsor 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Címsor 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Címsor 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Ellenőrzőcella" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Figyelmeztetés" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Hivatkozás" xfId="42" builtinId="8"/>
-    <cellStyle name="Hivatkozott cella" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Jegyzet" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Jó" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Kimenet" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Magyarázó szöveg" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Összesen" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Rossz" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Semleges" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Számítás" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -810,7 +636,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1072,15 +898,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G2" sqref="G2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1106,308 +932,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
-        <v>69</v>
-      </c>
-      <c r="H38" t="s">
-        <v>35</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1"/>
-    <hyperlink ref="H14" r:id="rId2"/>
+    <hyperlink ref="H3:H11" r:id="rId1" display="shahimrans64@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/database/target.xlsx
+++ b/database/target.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app_old\gmail_app_old\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Upwork\2020\gmail_app\gmail_app_old\gmail_app_old\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="5">
   <si>
     <t>TONAME</t>
   </si>
@@ -313,7 +313,7 @@
   <dimension ref="A1:H20054"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -443,70 +443,147 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
@@ -25047,6 +25124,17 @@
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3:H8" r:id="rId2" display="shahimrans64@gmail.com"/>
+    <hyperlink ref="H9" r:id="rId3"/>
+    <hyperlink ref="H10" r:id="rId4"/>
+    <hyperlink ref="H11" r:id="rId5"/>
+    <hyperlink ref="H12" r:id="rId6"/>
+    <hyperlink ref="H13" r:id="rId7"/>
+    <hyperlink ref="H14" r:id="rId8"/>
+    <hyperlink ref="H15" r:id="rId9"/>
+    <hyperlink ref="H16" r:id="rId10"/>
+    <hyperlink ref="H17" r:id="rId11"/>
+    <hyperlink ref="H18" r:id="rId12"/>
+    <hyperlink ref="H19" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/database/target.xlsx
+++ b/database/target.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -313,7 +313,7 @@
   <dimension ref="A1:H20054"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -353,7 +353,10 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3">
+        <f>SUM(C1,  1)</f>
+        <v>4</v>
+      </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
@@ -366,7 +369,10 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C19" si="0">SUM(C2,  1)</f>
+        <v>5</v>
+      </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
@@ -379,7 +385,10 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
@@ -392,7 +401,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
@@ -405,7 +417,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
@@ -418,7 +433,10 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
@@ -431,7 +449,10 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
@@ -444,7 +465,10 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="F9" t="s">
         <v>4</v>
       </c>
@@ -457,7 +481,10 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
@@ -470,7 +497,10 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="F11" t="s">
         <v>4</v>
       </c>
@@ -483,7 +513,10 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="F12" t="s">
         <v>4</v>
       </c>
@@ -496,7 +529,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="F13" t="s">
         <v>4</v>
       </c>
@@ -509,7 +545,10 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="F14" t="s">
         <v>4</v>
       </c>
@@ -522,7 +561,10 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="F15" t="s">
         <v>4</v>
       </c>
@@ -535,7 +577,10 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="F16" t="s">
         <v>4</v>
       </c>
@@ -548,7 +593,10 @@
     </row>
     <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="F17" t="s">
         <v>4</v>
       </c>
@@ -561,7 +609,10 @@
     </row>
     <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="F18" t="s">
         <v>4</v>
       </c>
@@ -574,7 +625,10 @@
     </row>
     <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="F19" t="s">
         <v>4</v>
       </c>
